--- a/CloudAid/PrototypeTesting/ReliabilityTestSheet.xlsx
+++ b/CloudAid/PrototypeTesting/ReliabilityTestSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="8F5D" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="0" windowWidth="11300" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Expected_Results_calculations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="212">
   <si>
     <t>Heroku Database Service</t>
   </si>
@@ -1068,9 +1068,6 @@
     <t>Validate theresults obtained with Admissible Solutions Algorithm.</t>
   </si>
   <si>
-    <t>Run the Combination class with the simulation scenario pre-defined</t>
-  </si>
-  <si>
     <t>List of admissible solutions to present to the suer</t>
   </si>
   <si>
@@ -1086,13 +1083,25 @@
     <t>See Algorithm_Tree_scenario2.pdf</t>
   </si>
   <si>
-    <t>TestResults_AdmissibleSolutionsAlgorithm.txt</t>
-  </si>
-  <si>
     <t>Validates the calculation of the admissible solution and the results of the admissible algorithm as stated in TRR5 and TFR15</t>
   </si>
   <si>
     <t>TRR5, TFR15</t>
+  </si>
+  <si>
+    <t>See Algorithm_Tree_scenario1.pdf</t>
+  </si>
+  <si>
+    <t>TestResults_AdmissibleSolutionsAlgorithm_WithInc.txt</t>
+  </si>
+  <si>
+    <t>TestResults_AdmissibleSolutionsAlgorithm_NoInc.txt</t>
+  </si>
+  <si>
+    <t>Run the Combination class with the simulation scenario pre-defined (With the Incomparability algorithm and delta = 0.1)</t>
+  </si>
+  <si>
+    <t>Run the Combination class with the simulation scenario pre-defined (With the No Incomparability algorithm)</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1420,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="468">
+  <cellStyleXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1880,8 +1889,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1922,19 +1941,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="183" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1982,13 +1992,34 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="183" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2005,6 +2036,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2039,11 +2073,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="468">
+  <cellStyles count="478">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2277,6 +2329,11 @@
     <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="183" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -2511,6 +2568,11 @@
     <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2842,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+    <sheetView topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2863,8 +2925,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41">
-      <c r="B2" s="44" t="s">
-        <v>202</v>
+      <c r="B2" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>122</v>
@@ -2880,67 +2942,67 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:41">
-      <c r="B3" s="44"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="2:41">
       <c r="B4" s="10"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:41">
       <c r="B5" s="10"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" spans="2:41">
       <c r="B6" s="10"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" spans="2:41">
       <c r="B7" s="10"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="2:41">
       <c r="B8" s="10"/>
@@ -2949,33 +3011,33 @@
       <c r="E8" s="10"/>
     </row>
     <row r="10" spans="2:41">
-      <c r="D10" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="35"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
       <c r="T10" s="5" t="s">
         <v>26</v>
       </c>
@@ -3002,30 +3064,30 @@
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="2:41">
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <v>50</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="52">
         <f>400/1024</f>
         <v>0.390625</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="52">
         <v>99.95</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="52">
         <v>1024</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
       <c r="T11" s="9"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -3056,38 +3118,38 @@
       </c>
     </row>
     <row r="12" spans="2:41">
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="52">
         <v>100</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="52">
         <f>800/1024</f>
         <v>0.78125</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="52">
         <v>99.95</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="52">
         <v>1024</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="N12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
       <c r="T12" s="12" t="s">
         <v>27</v>
       </c>
@@ -3134,35 +3196,35 @@
       </c>
     </row>
     <row r="13" spans="2:41">
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="52">
         <v>200</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="52">
         <v>1.7</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="52">
         <v>99.95</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="52">
         <v>1024</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37">
+      <c r="M13" s="34"/>
+      <c r="N13" s="34">
         <v>4000</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
       <c r="T13" s="9" t="s">
         <v>9</v>
       </c>
@@ -3208,35 +3270,35 @@
       </c>
     </row>
     <row r="14" spans="2:41">
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="52">
         <v>400</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="52">
         <v>3.75</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="52">
         <v>99.95</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="52">
         <v>1024</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="34">
         <v>500</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
       <c r="T14" s="9" t="s">
         <v>14</v>
       </c>
@@ -3282,29 +3344,29 @@
       </c>
     </row>
     <row r="15" spans="2:41">
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="52">
         <v>800</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="52">
         <v>7.5</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="52">
         <v>99.95</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="52">
         <v>1024</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
       <c r="T15" s="9" t="s">
         <v>23</v>
       </c>
@@ -3329,45 +3391,45 @@
       <c r="AJ15" s="11"/>
     </row>
     <row r="16" spans="2:41">
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="52">
         <v>1600</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="52">
         <v>17</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="52">
         <v>99.95</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="52">
         <v>1024</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="43" t="s">
+      <c r="M16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="34">
         <f>MIN(L18:L24)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="43" t="s">
+      <c r="O16" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="34">
         <f>MAX(L18:L24)</f>
         <v>3150</v>
       </c>
-      <c r="Q16" s="43" t="s">
+      <c r="Q16" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="35">
         <f>IF(L13="MIN",MIN($E$11:$E$17),MAX($E$11:$E$17))</f>
         <v>50</v>
       </c>
@@ -3421,37 +3483,37 @@
       </c>
     </row>
     <row r="17" spans="4:36">
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="52">
         <v>3200</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="52">
         <v>34</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="52">
         <v>99.95</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="52">
         <v>1024</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="86"/>
-      <c r="O17" s="43" t="s">
+      <c r="N17" s="90"/>
+      <c r="O17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
       <c r="T17" s="9"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -3466,10 +3528,10 @@
       <c r="AD17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE17" s="84" t="s">
+      <c r="AE17" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="AF17" s="84"/>
+      <c r="AF17" s="88"/>
       <c r="AG17" s="13" t="s">
         <v>38</v>
       </c>
@@ -3478,40 +3540,40 @@
       <c r="AJ17" s="11"/>
     </row>
     <row r="18" spans="4:36">
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="52">
         <v>6400</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="52">
         <v>68</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="52">
         <v>99.95</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="52">
         <v>1024</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="34">
         <f>E11-$R$16</f>
         <v>0</v>
       </c>
-      <c r="M18" s="85">
+      <c r="M18" s="89">
         <f>(L18-$N$16)/($P$16-$N$16)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="37">
+      <c r="N18" s="89"/>
+      <c r="O18" s="34">
         <f>IF($L$13="MIN",(M18*-1+1),M18)</f>
         <v>1</v>
       </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="38"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
       <c r="T18" s="12" t="s">
         <v>34</v>
       </c>
@@ -3546,11 +3608,11 @@
         <f>E15-$AJ$16</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="83">
+      <c r="AE18" s="87">
         <f>(AD18-$AF$16)/($AH$16-$AF$16)</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="83"/>
+      <c r="AF18" s="87"/>
       <c r="AG18" s="10">
         <f>(AE18*-1+1)</f>
         <v>1</v>
@@ -3560,35 +3622,35 @@
       <c r="AJ18" s="11"/>
     </row>
     <row r="19" spans="4:36">
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="34">
         <f t="shared" ref="L19:L24" si="0">E12-$R$16</f>
         <v>50</v>
       </c>
-      <c r="M19" s="85">
+      <c r="M19" s="89">
         <f t="shared" ref="M19:M24" si="1">(L19-$N$16)/($P$16-$N$16)</f>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="N19" s="85"/>
-      <c r="O19" s="37">
+      <c r="N19" s="89"/>
+      <c r="O19" s="34">
         <f t="shared" ref="O19:O24" si="2">IF($L$13="MIN",(M19*-1+1),M19)</f>
         <v>0.98412698412698418</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="35"/>
       <c r="T19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="U19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="84" t="s">
+      <c r="V19" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="84"/>
+      <c r="W19" s="88"/>
       <c r="X19" s="13" t="s">
         <v>38</v>
       </c>
@@ -3602,11 +3664,11 @@
         <f>E16-$AJ$16</f>
         <v>800</v>
       </c>
-      <c r="AE19" s="83">
+      <c r="AE19" s="87">
         <f>(AD19-$AF$16)/($AH$16-$AF$16)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF19" s="83"/>
+      <c r="AF19" s="87"/>
       <c r="AG19" s="10">
         <f>(AE19*-1+1)</f>
         <v>0.66666666666666674</v>
@@ -3616,25 +3678,25 @@
       <c r="AJ19" s="11"/>
     </row>
     <row r="20" spans="4:36">
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="34">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="M20" s="85">
+      <c r="M20" s="89">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="N20" s="85"/>
-      <c r="O20" s="37">
+      <c r="N20" s="89"/>
+      <c r="O20" s="34">
         <f t="shared" si="2"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="38"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
       <c r="T20" s="14" t="s">
         <v>6</v>
       </c>
@@ -3642,11 +3704,11 @@
         <f>E16-$AA$18</f>
         <v>0</v>
       </c>
-      <c r="V20" s="83">
+      <c r="V20" s="87">
         <f>(U20-$W$18)/($Y$18-$W$18)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="83"/>
+      <c r="W20" s="87"/>
       <c r="X20" s="10">
         <f>(V20*-1+1)</f>
         <v>1</v>
@@ -3661,11 +3723,11 @@
         <f>E17-$AJ$16</f>
         <v>2400</v>
       </c>
-      <c r="AE20" s="83">
+      <c r="AE20" s="87">
         <f>(AD20-$AF$16)/($AH$16-$AF$16)</f>
         <v>1</v>
       </c>
-      <c r="AF20" s="83"/>
+      <c r="AF20" s="87"/>
       <c r="AG20" s="10">
         <f>(AE20*-1+1)</f>
         <v>0</v>
@@ -3687,25 +3749,25 @@
       <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="34">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="M21" s="85">
+      <c r="M21" s="89">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="37">
+      <c r="N21" s="89"/>
+      <c r="O21" s="34">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
       <c r="T21" s="14" t="s">
         <v>7</v>
       </c>
@@ -3713,11 +3775,11 @@
         <f>E17-$AA$18</f>
         <v>1600</v>
       </c>
-      <c r="V21" s="83">
+      <c r="V21" s="87">
         <f>(U21-$W$18)/($Y$18-$W$18)</f>
         <v>1</v>
       </c>
-      <c r="W21" s="83"/>
+      <c r="W21" s="87"/>
       <c r="X21" s="10">
         <f>(V21*-1+1)</f>
         <v>0</v>
@@ -3746,25 +3808,25 @@
         <f>F22/I37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="34">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="M22" s="85">
+      <c r="M22" s="89">
         <f t="shared" si="1"/>
         <v>0.23809523809523808</v>
       </c>
-      <c r="N22" s="85"/>
-      <c r="O22" s="37">
+      <c r="N22" s="89"/>
+      <c r="O22" s="34">
         <f t="shared" si="2"/>
         <v>0.76190476190476186</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="35"/>
       <c r="T22" s="9"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -3793,25 +3855,25 @@
         <f>F23/F25</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="34">
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="M23" s="85">
+      <c r="M23" s="89">
         <f t="shared" si="1"/>
         <v>0.49206349206349204</v>
       </c>
-      <c r="N23" s="85"/>
-      <c r="O23" s="37">
+      <c r="N23" s="89"/>
+      <c r="O23" s="34">
         <f t="shared" si="2"/>
         <v>0.50793650793650791</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="38"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="35"/>
       <c r="T23" s="12" t="s">
         <v>34</v>
       </c>
@@ -3878,35 +3940,35 @@
         <f>F24/F25</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="34">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="M24" s="85">
+      <c r="M24" s="89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="37">
+      <c r="N24" s="89"/>
+      <c r="O24" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="38"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
       <c r="T24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="U24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="84" t="s">
+      <c r="V24" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="84"/>
+      <c r="W24" s="88"/>
       <c r="X24" s="13" t="s">
         <v>38</v>
       </c>
@@ -3919,10 +3981,10 @@
       <c r="AD24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE24" s="84" t="s">
+      <c r="AE24" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="AF24" s="84"/>
+      <c r="AF24" s="88"/>
       <c r="AG24" s="13" t="s">
         <v>38</v>
       </c>
@@ -3938,14 +4000,14 @@
         <f>SUM(F23:F24)</f>
         <v>7</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="38"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
       <c r="T25" s="14" t="s">
         <v>6</v>
       </c>
@@ -3953,11 +4015,11 @@
         <f>H16-$AA$23</f>
         <v>0</v>
       </c>
-      <c r="V25" s="83">
+      <c r="V25" s="87">
         <f>IF(Y23=0,0,(U25-$W$18)/($Y$23-$W$23))</f>
         <v>0</v>
       </c>
-      <c r="W25" s="83"/>
+      <c r="W25" s="87"/>
       <c r="X25" s="10">
         <f>(V25*-1+1)</f>
         <v>1</v>
@@ -3972,11 +4034,11 @@
         <f>ABS(F15-$AJ$23)</f>
         <v>26.5</v>
       </c>
-      <c r="AE25" s="83">
+      <c r="AE25" s="87">
         <f>(AD25-$AF$23)/($AH$23-$AF$23)</f>
         <v>1</v>
       </c>
-      <c r="AF25" s="83"/>
+      <c r="AF25" s="87"/>
       <c r="AG25" s="10">
         <f>(AE25*-1+1)</f>
         <v>0</v>
@@ -3997,30 +4059,30 @@
         <f>F26/I37</f>
         <v>0.5</v>
       </c>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N26" s="34">
         <f>MIN(L28:L34)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="43" t="s">
+      <c r="O26" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="34">
         <f>MAX(L28:L34)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="43" t="s">
+      <c r="Q26" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="38">
+      <c r="R26" s="35">
         <f>IF(L23="MIN",MIN(H11:H17),MAX(H11:H17))</f>
         <v>1024</v>
       </c>
@@ -4031,11 +4093,11 @@
         <f>H17-$AA$23</f>
         <v>0</v>
       </c>
-      <c r="V26" s="83">
+      <c r="V26" s="87">
         <f>IF(Y24=0,0,(U26-$W$18)/($Y$23-$W$23))</f>
         <v>0</v>
       </c>
-      <c r="W26" s="83"/>
+      <c r="W26" s="87"/>
       <c r="X26" s="10">
         <f>(V26*-1+1)</f>
         <v>1</v>
@@ -4050,11 +4112,11 @@
         <f>ABS(F16-$AJ$23)</f>
         <v>17</v>
       </c>
-      <c r="AE26" s="83">
+      <c r="AE26" s="87">
         <f>(AD26-$AF$23)/($AH$23-$AF$23)</f>
         <v>0.64150943396226412</v>
       </c>
-      <c r="AF26" s="83"/>
+      <c r="AF26" s="87"/>
       <c r="AG26" s="10">
         <f>(AE26*-1+1)</f>
         <v>0.35849056603773588</v>
@@ -4074,22 +4136,22 @@
         <f>F27/F31</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="86" t="s">
+      <c r="M27" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="86"/>
-      <c r="O27" s="43" t="s">
+      <c r="N27" s="90"/>
+      <c r="O27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="38"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
       <c r="T27" s="9"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -4105,11 +4167,11 @@
         <f>ABS(F17-$AJ$23)</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="83">
+      <c r="AE27" s="87">
         <f>(AD27-$AF$23)/($AH$23-$AF$23)</f>
         <v>0</v>
       </c>
-      <c r="AF27" s="83"/>
+      <c r="AF27" s="87"/>
       <c r="AG27" s="10">
         <f>(AE27*-1+1)</f>
         <v>1</v>
@@ -4129,25 +4191,25 @@
         <f>F28/F31</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="34">
         <f>H11-$R$26</f>
         <v>0</v>
       </c>
-      <c r="M28" s="85">
+      <c r="M28" s="89">
         <f>(L28-$N$16)/($P$16-$N$16)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="37">
+      <c r="N28" s="89"/>
+      <c r="O28" s="34">
         <f t="shared" ref="O28:O34" si="3">(M28*-1+1)</f>
         <v>1</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="38"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
       <c r="T28" s="12" t="s">
         <v>34</v>
       </c>
@@ -4195,35 +4257,35 @@
         <f>F29/F31</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="34">
         <f t="shared" ref="L29:L34" si="4">H12-$R$26</f>
         <v>0</v>
       </c>
-      <c r="M29" s="85">
+      <c r="M29" s="89">
         <f t="shared" ref="M29:M34" si="5">(L29-$N$16)/($P$16-$N$16)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="85"/>
-      <c r="O29" s="37">
+      <c r="N29" s="89"/>
+      <c r="O29" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="38"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
       <c r="T29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="U29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V29" s="84" t="s">
+      <c r="V29" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="W29" s="84"/>
+      <c r="W29" s="88"/>
       <c r="X29" s="13" t="s">
         <v>38</v>
       </c>
@@ -4254,25 +4316,25 @@
         <f>F30/F31</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="85">
+      <c r="M30" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="85"/>
-      <c r="O30" s="37">
+      <c r="N30" s="89"/>
+      <c r="O30" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="38"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
       <c r="T30" s="14" t="s">
         <v>6</v>
       </c>
@@ -4280,11 +4342,11 @@
         <f>G16-$AA$28</f>
         <v>0</v>
       </c>
-      <c r="V30" s="83">
+      <c r="V30" s="87">
         <f>IF(Y28=0,0,(U30-W28)/($Y$28-$W$28))</f>
         <v>0</v>
       </c>
-      <c r="W30" s="83"/>
+      <c r="W30" s="87"/>
       <c r="X30" s="10">
         <f>(V30*-1+1)</f>
         <v>1</v>
@@ -4317,25 +4379,25 @@
         <f>SUM(F27:F30)</f>
         <v>12</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="85">
+      <c r="M31" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="85"/>
-      <c r="O31" s="37">
+      <c r="N31" s="89"/>
+      <c r="O31" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="38"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="35"/>
       <c r="T31" s="14" t="s">
         <v>7</v>
       </c>
@@ -4343,11 +4405,11 @@
         <f>G17-$AA$28</f>
         <v>0</v>
       </c>
-      <c r="V31" s="83">
+      <c r="V31" s="87">
         <f>IF(Y29=0,0,(U31-W29)/($Y$28-$W$28))</f>
         <v>0</v>
       </c>
-      <c r="W31" s="83"/>
+      <c r="W31" s="87"/>
       <c r="X31" s="10">
         <f>(V31*-1+1)</f>
         <v>1</v>
@@ -4387,25 +4449,25 @@
         <f>F32/I37</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M32" s="85">
+      <c r="M32" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N32" s="85"/>
-      <c r="O32" s="37">
+      <c r="N32" s="89"/>
+      <c r="O32" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="38"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
       <c r="T32" s="14"/>
       <c r="U32" s="10"/>
       <c r="V32" s="20"/>
@@ -4446,25 +4508,25 @@
         <f>F33/F35</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M33" s="85">
+      <c r="M33" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33" s="85"/>
-      <c r="O33" s="37">
+      <c r="N33" s="89"/>
+      <c r="O33" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="38"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="35"/>
       <c r="T33" s="12" t="s">
         <v>34</v>
       </c>
@@ -4524,35 +4586,35 @@
         <f>F34/F35</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="85">
+      <c r="M34" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N34" s="85"/>
-      <c r="O34" s="37">
+      <c r="N34" s="89"/>
+      <c r="O34" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
       <c r="T34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V34" s="84" t="s">
+      <c r="V34" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="W34" s="84"/>
+      <c r="W34" s="88"/>
       <c r="X34" s="13" t="s">
         <v>38</v>
       </c>
@@ -4584,11 +4646,11 @@
         <f>ABS(F16-$AA$33)</f>
         <v>17</v>
       </c>
-      <c r="V35" s="83">
+      <c r="V35" s="87">
         <f>(U35-$W$33)/($Y$33-$W$33)</f>
         <v>1</v>
       </c>
-      <c r="W35" s="83"/>
+      <c r="W35" s="87"/>
       <c r="X35" s="10">
         <f>(V35*-1+1)</f>
         <v>0</v>
@@ -4613,11 +4675,11 @@
         <f>ABS(F17-$AA$33)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="83">
+      <c r="V36" s="87">
         <f>(U36-$W$33)/($Y$33-$W$33)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="83"/>
+      <c r="W36" s="87"/>
       <c r="X36" s="10">
         <f>(V36*-1+1)</f>
         <v>1</v>
@@ -4634,14 +4696,14 @@
         <f>SUM(F22+F26+F32)</f>
         <v>6</v>
       </c>
-      <c r="K37" s="52" t="s">
+      <c r="K37" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
@@ -4656,16 +4718,16 @@
       <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="4:36">
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="50" t="s">
         <v>24</v>
       </c>
       <c r="O38" s="10"/>
@@ -4686,18 +4748,18 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="4:36">
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L39" s="49">
+      <c r="L39" s="46">
         <f>O18*$G$24</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="M39" s="49">
+      <c r="M39" s="46">
         <f>O28*$G$23</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N39" s="49">
+      <c r="N39" s="46">
         <f>SUM(L39:M39)</f>
         <v>1</v>
       </c>
@@ -4727,18 +4789,18 @@
       <c r="AA39" s="11"/>
     </row>
     <row r="40" spans="4:36">
-      <c r="K40" s="48" t="s">
+      <c r="K40" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="49">
+      <c r="L40" s="46">
         <f t="shared" ref="L40:L45" si="6">O19*$G$24</f>
         <v>0.56235827664399096</v>
       </c>
-      <c r="M40" s="49">
+      <c r="M40" s="46">
         <f t="shared" ref="M40:M45" si="7">O29*$G$23</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N40" s="49">
+      <c r="N40" s="46">
         <f t="shared" ref="N40:N45" si="8">SUM(L40:M40)</f>
         <v>0.99092970521541957</v>
       </c>
@@ -4773,18 +4835,18 @@
       <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="4:36">
-      <c r="K41" s="48" t="s">
+      <c r="K41" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="49">
+      <c r="L41" s="46">
         <f t="shared" si="6"/>
         <v>0.54421768707482987</v>
       </c>
-      <c r="M41" s="49">
+      <c r="M41" s="46">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N41" s="46">
         <f t="shared" si="8"/>
         <v>0.97278911564625847</v>
       </c>
@@ -4819,18 +4881,18 @@
       <c r="AA41" s="18"/>
     </row>
     <row r="42" spans="4:36">
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="49">
+      <c r="L42" s="46">
         <f t="shared" si="6"/>
         <v>0.50793650793650791</v>
       </c>
-      <c r="M42" s="49">
+      <c r="M42" s="46">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N42" s="46">
         <f t="shared" si="8"/>
         <v>0.93650793650793651</v>
       </c>
@@ -4840,18 +4902,18 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="4:36">
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="49">
+      <c r="L43" s="46">
         <f t="shared" si="6"/>
         <v>0.43537414965986387</v>
       </c>
-      <c r="M43" s="49">
+      <c r="M43" s="46">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N43" s="46">
         <f t="shared" si="8"/>
         <v>0.86394557823129237</v>
       </c>
@@ -4861,18 +4923,18 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="4:36">
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="49">
+      <c r="L44" s="46">
         <f t="shared" si="6"/>
         <v>0.29024943310657592</v>
       </c>
-      <c r="M44" s="49">
+      <c r="M44" s="46">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N44" s="49">
+      <c r="N44" s="46">
         <f t="shared" si="8"/>
         <v>0.71882086167800452</v>
       </c>
@@ -4882,18 +4944,18 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="4:36">
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="51">
+      <c r="L45" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M45" s="51">
+      <c r="M45" s="48">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="N45" s="51">
+      <c r="N45" s="48">
         <f t="shared" si="8"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4903,500 +4965,500 @@
       <c r="R45" s="18"/>
     </row>
     <row r="52" spans="4:18">
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="E52" s="76" t="s">
+      <c r="E52" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="76" t="s">
+      <c r="F52" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="76" t="s">
+      <c r="G52" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="H52" s="77" t="s">
+      <c r="H52" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="77" t="s">
+      <c r="I52" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="K52" s="68" t="s">
+      <c r="K52" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="69" t="s">
+      <c r="L52" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="63"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="60"/>
     </row>
     <row r="53" spans="4:18">
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="74">
+      <c r="E53" s="71">
         <f>0.09+0.06+5+0.05</f>
         <v>5.2</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="74">
+      <c r="G53" s="71">
         <v>51200</v>
       </c>
-      <c r="H53" s="74">
+      <c r="H53" s="71">
         <v>160</v>
       </c>
-      <c r="I53" s="74" t="s">
+      <c r="I53" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K53" s="64"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="65"/>
-      <c r="Q53" s="65"/>
-      <c r="R53" s="66"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="63"/>
     </row>
     <row r="54" spans="4:18">
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="74">
+      <c r="E54" s="71">
         <f>5+0.091+0.09+0.05</f>
         <v>5.2309999999999999</v>
       </c>
-      <c r="F54" s="74" t="s">
+      <c r="F54" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="74">
+      <c r="G54" s="71">
         <v>51200</v>
       </c>
-      <c r="H54" s="74">
+      <c r="H54" s="71">
         <v>160</v>
       </c>
-      <c r="I54" s="74" t="s">
+      <c r="I54" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K54" s="70" t="s">
+      <c r="K54" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="71" t="s">
+      <c r="L54" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M54" s="71" t="s">
+      <c r="M54" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="71" t="s">
+      <c r="N54" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="65"/>
-      <c r="R54" s="66"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63"/>
     </row>
     <row r="55" spans="4:18">
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="74">
+      <c r="E55" s="71">
         <f>5+0.05+0.07+0.06</f>
         <v>5.18</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="74">
+      <c r="G55" s="71">
         <v>153600</v>
       </c>
-      <c r="H55" s="74">
+      <c r="H55" s="71">
         <v>160</v>
       </c>
-      <c r="I55" s="74" t="s">
+      <c r="I55" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K55" s="64" t="s">
+      <c r="K55" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="65" t="s">
+      <c r="L55" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65">
+      <c r="M55" s="62"/>
+      <c r="N55" s="62">
         <v>4000</v>
       </c>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="66"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="63"/>
     </row>
     <row r="56" spans="4:18">
-      <c r="D56" s="73" t="s">
+      <c r="D56" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="71">
         <v>5.2110000000000003</v>
       </c>
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="74">
+      <c r="G56" s="71">
         <v>153600</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="71">
         <v>160</v>
       </c>
-      <c r="I56" s="74" t="s">
+      <c r="I56" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K56" s="64" t="s">
+      <c r="K56" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="65" t="s">
+      <c r="L56" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M56" s="65">
+      <c r="M56" s="62">
         <v>150</v>
       </c>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="66"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="63"/>
     </row>
     <row r="57" spans="4:18">
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="74">
+      <c r="E57" s="71">
         <v>5.16</v>
       </c>
-      <c r="F57" s="74" t="s">
+      <c r="F57" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G57" s="74">
+      <c r="G57" s="71">
         <v>512000</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="71">
         <v>160</v>
       </c>
-      <c r="I57" s="74" t="s">
+      <c r="I57" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K57" s="64" t="s">
+      <c r="K57" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="L57" s="65" t="s">
+      <c r="L57" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M57" s="65">
+      <c r="M57" s="62">
         <v>40960</v>
       </c>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="66"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="63"/>
     </row>
     <row r="58" spans="4:18">
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="74">
+      <c r="E58" s="71">
         <v>5.1909999999999998</v>
       </c>
-      <c r="F58" s="74" t="s">
+      <c r="F58" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="74">
+      <c r="G58" s="71">
         <v>512000</v>
       </c>
-      <c r="H58" s="74">
+      <c r="H58" s="71">
         <v>160</v>
       </c>
-      <c r="I58" s="74" t="s">
+      <c r="I58" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K58" s="64" t="s">
+      <c r="K58" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L58" s="65" t="s">
+      <c r="L58" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="66"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="63"/>
     </row>
     <row r="59" spans="4:18">
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="74">
+      <c r="E59" s="71">
         <v>0.23</v>
       </c>
-      <c r="F59" s="74" t="s">
+      <c r="F59" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="74">
+      <c r="G59" s="71">
         <v>51200</v>
       </c>
-      <c r="H59" s="74">
+      <c r="H59" s="71">
         <v>160</v>
       </c>
-      <c r="I59" s="74" t="s">
+      <c r="I59" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K59" s="64" t="s">
+      <c r="K59" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="L59" s="65" t="s">
+      <c r="L59" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="66"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="63"/>
     </row>
     <row r="60" spans="4:18">
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="74">
+      <c r="E60" s="71">
         <v>0.2</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G60" s="74">
+      <c r="G60" s="71">
         <v>51200</v>
       </c>
-      <c r="H60" s="74">
+      <c r="H60" s="71">
         <v>160</v>
       </c>
-      <c r="I60" s="74" t="s">
+      <c r="I60" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K60" s="64"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="66"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="63"/>
     </row>
     <row r="61" spans="4:18">
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="74">
+      <c r="E61" s="71">
         <v>0.18</v>
       </c>
-      <c r="F61" s="74" t="s">
+      <c r="F61" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G61" s="74">
+      <c r="G61" s="71">
         <v>153600</v>
       </c>
-      <c r="H61" s="74">
+      <c r="H61" s="71">
         <v>160</v>
       </c>
-      <c r="I61" s="74" t="s">
+      <c r="I61" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K61" s="70" t="s">
+      <c r="K61" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L61" s="65" t="s">
+      <c r="L61" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="N61" s="65">
+      <c r="N61" s="62">
         <f>MIN(L63:L74)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="71" t="s">
+      <c r="O61" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P61" s="65">
+      <c r="P61" s="62">
         <f>MAX(L63:L74)</f>
         <v>5.0709999999999997</v>
       </c>
-      <c r="Q61" s="71" t="s">
+      <c r="Q61" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="R61" s="66">
+      <c r="R61" s="63">
         <f>IF(L55="MIN",MIN($E$53:$E$64),MAX($E$53:$E$64))</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="62" spans="4:18">
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="74">
+      <c r="E62" s="71">
         <v>0.21099999999999999</v>
       </c>
-      <c r="F62" s="74" t="s">
+      <c r="F62" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G62" s="74">
+      <c r="G62" s="71">
         <v>153600</v>
       </c>
-      <c r="H62" s="74">
+      <c r="H62" s="71">
         <v>160</v>
       </c>
-      <c r="I62" s="74" t="s">
+      <c r="I62" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K62" s="70" t="s">
+      <c r="K62" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L62" s="71" t="s">
+      <c r="L62" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M62" s="81" t="s">
+      <c r="M62" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="81"/>
-      <c r="O62" s="71" t="s">
+      <c r="N62" s="86"/>
+      <c r="O62" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="65"/>
-      <c r="R62" s="66"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="63"/>
     </row>
     <row r="63" spans="4:18">
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="74">
+      <c r="E63" s="71">
         <v>0.191</v>
       </c>
-      <c r="F63" s="74" t="s">
+      <c r="F63" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="74">
+      <c r="G63" s="71">
         <v>512000</v>
       </c>
-      <c r="H63" s="74">
+      <c r="H63" s="71">
         <v>160</v>
       </c>
-      <c r="I63" s="74" t="s">
+      <c r="I63" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K63" s="67" t="s">
+      <c r="K63" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L63" s="65">
+      <c r="L63" s="62">
         <f>E53-$R$61</f>
         <v>5.04</v>
       </c>
-      <c r="M63" s="82">
+      <c r="M63" s="85">
         <f>(L63-$N$61)/($P$61-$N$61)</f>
         <v>0.99388680733583123</v>
       </c>
-      <c r="N63" s="82"/>
-      <c r="O63" s="65">
+      <c r="N63" s="85"/>
+      <c r="O63" s="62">
         <f>IF($L$55="MIN",(M63*-1+1),M63)</f>
         <v>6.1131926641687651E-3</v>
       </c>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="66"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="63"/>
     </row>
     <row r="64" spans="4:18">
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="74">
+      <c r="E64" s="71">
         <v>0.16</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="74">
+      <c r="G64" s="71">
         <v>512000</v>
       </c>
-      <c r="H64" s="74">
+      <c r="H64" s="71">
         <v>160</v>
       </c>
-      <c r="I64" s="74" t="s">
+      <c r="I64" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="K64" s="67" t="s">
+      <c r="K64" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="L64" s="65">
+      <c r="L64" s="62">
         <f t="shared" ref="L64:L74" si="9">E54-$R$61</f>
         <v>5.0709999999999997</v>
       </c>
-      <c r="M64" s="82">
+      <c r="M64" s="85">
         <f t="shared" ref="M64:M74" si="10">(L64-$N$61)/($P$61-$N$61)</f>
         <v>1</v>
       </c>
-      <c r="N64" s="82"/>
-      <c r="O64" s="65">
+      <c r="N64" s="85"/>
+      <c r="O64" s="62">
         <f t="shared" ref="O64:O74" si="11">IF($L$55="MIN",(M64*-1+1),M64)</f>
         <v>0</v>
       </c>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="66"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="63"/>
     </row>
     <row r="65" spans="4:18">
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="L65" s="65">
+      <c r="L65" s="62">
         <f t="shared" si="9"/>
         <v>5.0199999999999996</v>
       </c>
-      <c r="M65" s="82">
+      <c r="M65" s="85">
         <f t="shared" si="10"/>
         <v>0.98994281206862544</v>
       </c>
-      <c r="N65" s="82"/>
-      <c r="O65" s="65">
+      <c r="N65" s="85"/>
+      <c r="O65" s="62">
         <f t="shared" si="11"/>
         <v>1.0057187931374556E-2</v>
       </c>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="66"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="63"/>
     </row>
     <row r="66" spans="4:18">
-      <c r="K66" s="67" t="s">
+      <c r="K66" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L66" s="65">
+      <c r="L66" s="62">
         <f t="shared" si="9"/>
         <v>5.0510000000000002</v>
       </c>
-      <c r="M66" s="82">
+      <c r="M66" s="85">
         <f t="shared" si="10"/>
         <v>0.99605600473279443</v>
       </c>
-      <c r="N66" s="82"/>
-      <c r="O66" s="65">
+      <c r="N66" s="85"/>
+      <c r="O66" s="62">
         <f t="shared" si="11"/>
         <v>3.9439952672055689E-3</v>
       </c>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="65"/>
-      <c r="R66" s="66"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
     </row>
     <row r="67" spans="4:18">
       <c r="D67" s="2" t="s">
@@ -5411,25 +5473,25 @@
       <c r="G67" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K67" s="67" t="s">
+      <c r="K67" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="L67" s="65">
+      <c r="L67" s="62">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="M67" s="82">
+      <c r="M67" s="85">
         <f t="shared" si="10"/>
         <v>0.98599881680141988</v>
       </c>
-      <c r="N67" s="82"/>
-      <c r="O67" s="65">
+      <c r="N67" s="85"/>
+      <c r="O67" s="62">
         <f t="shared" si="11"/>
         <v>1.4001183198580125E-2</v>
       </c>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="66"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="63"/>
     </row>
     <row r="68" spans="4:18">
       <c r="D68" s="3" t="s">
@@ -5443,25 +5505,25 @@
         <f>F68/G77</f>
         <v>1</v>
       </c>
-      <c r="K68" s="67" t="s">
+      <c r="K68" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="L68" s="65">
+      <c r="L68" s="62">
         <f t="shared" si="9"/>
         <v>5.0309999999999997</v>
       </c>
-      <c r="M68" s="82">
+      <c r="M68" s="85">
         <f t="shared" si="10"/>
         <v>0.99211200946558864</v>
       </c>
-      <c r="N68" s="82"/>
-      <c r="O68" s="65">
+      <c r="N68" s="85"/>
+      <c r="O68" s="62">
         <f t="shared" si="11"/>
         <v>7.8879905344113599E-3</v>
       </c>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="66"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="63"/>
     </row>
     <row r="69" spans="4:18">
       <c r="E69" t="s">
@@ -5474,25 +5536,25 @@
         <f>F69/F74</f>
         <v>0.125</v>
       </c>
-      <c r="K69" s="67" t="s">
+      <c r="K69" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="L69" s="65">
+      <c r="L69" s="62">
         <f t="shared" si="9"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M69" s="82">
+      <c r="M69" s="85">
         <f t="shared" si="10"/>
         <v>1.380398343521988E-2</v>
       </c>
-      <c r="N69" s="82"/>
-      <c r="O69" s="65">
+      <c r="N69" s="85"/>
+      <c r="O69" s="62">
         <f t="shared" si="11"/>
         <v>0.98619601656478006</v>
       </c>
-      <c r="P69" s="65"/>
-      <c r="Q69" s="65"/>
-      <c r="R69" s="66"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63"/>
     </row>
     <row r="70" spans="4:18">
       <c r="E70" t="s">
@@ -5505,25 +5567,25 @@
         <f>F70/F74</f>
         <v>0.25</v>
       </c>
-      <c r="K70" s="67" t="s">
+      <c r="K70" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L70" s="65">
+      <c r="L70" s="62">
         <f t="shared" si="9"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M70" s="82">
+      <c r="M70" s="85">
         <f t="shared" si="10"/>
         <v>7.8879905344113599E-3</v>
       </c>
-      <c r="N70" s="82"/>
-      <c r="O70" s="65">
+      <c r="N70" s="85"/>
+      <c r="O70" s="62">
         <f t="shared" si="11"/>
         <v>0.99211200946558864</v>
       </c>
-      <c r="P70" s="65"/>
-      <c r="Q70" s="65"/>
-      <c r="R70" s="66"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="63"/>
     </row>
     <row r="71" spans="4:18">
       <c r="E71" t="s">
@@ -5536,25 +5598,25 @@
         <f>F71/F74</f>
         <v>0.1875</v>
       </c>
-      <c r="K71" s="67" t="s">
+      <c r="K71" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="L71" s="65">
+      <c r="L71" s="62">
         <f t="shared" si="9"/>
         <v>1.999999999999999E-2</v>
       </c>
-      <c r="M71" s="82">
+      <c r="M71" s="85">
         <f t="shared" si="10"/>
         <v>3.9439952672056773E-3</v>
       </c>
-      <c r="N71" s="82"/>
-      <c r="O71" s="65">
+      <c r="N71" s="85"/>
+      <c r="O71" s="62">
         <f t="shared" si="11"/>
         <v>0.99605600473279432</v>
       </c>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="66"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="63"/>
     </row>
     <row r="72" spans="4:18">
       <c r="E72" t="s">
@@ -5567,25 +5629,25 @@
         <f>F72/F74</f>
         <v>0.3125</v>
       </c>
-      <c r="K72" s="67" t="s">
+      <c r="K72" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="L72" s="65">
+      <c r="L72" s="62">
         <f t="shared" si="9"/>
         <v>5.099999999999999E-2</v>
       </c>
-      <c r="M72" s="82">
+      <c r="M72" s="85">
         <f t="shared" si="10"/>
         <v>1.0057187931374481E-2</v>
       </c>
-      <c r="N72" s="82"/>
-      <c r="O72" s="65">
+      <c r="N72" s="85"/>
+      <c r="O72" s="62">
         <f t="shared" si="11"/>
         <v>0.98994281206862555</v>
       </c>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="66"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="63"/>
     </row>
     <row r="73" spans="4:18">
       <c r="E73" t="s">
@@ -5598,25 +5660,25 @@
         <f>F73/F74</f>
         <v>0.125</v>
       </c>
-      <c r="K73" s="67" t="s">
+      <c r="K73" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="L73" s="65">
+      <c r="L73" s="62">
         <f t="shared" si="9"/>
         <v>3.1E-2</v>
       </c>
-      <c r="M73" s="82">
+      <c r="M73" s="85">
         <f t="shared" si="10"/>
         <v>6.1131926641688032E-3</v>
       </c>
-      <c r="N73" s="82"/>
-      <c r="O73" s="65">
+      <c r="N73" s="85"/>
+      <c r="O73" s="62">
         <f t="shared" si="11"/>
         <v>0.99388680733583123</v>
       </c>
-      <c r="P73" s="65"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="66"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="63"/>
     </row>
     <row r="74" spans="4:18">
       <c r="E74" s="2" t="s">
@@ -5626,61 +5688,61 @@
         <f>SUM(F69:F73)</f>
         <v>16</v>
       </c>
-      <c r="K74" s="67" t="s">
+      <c r="K74" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="L74" s="65">
+      <c r="L74" s="62">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M74" s="82">
+      <c r="M74" s="85">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N74" s="82"/>
-      <c r="O74" s="65">
+      <c r="N74" s="85"/>
+      <c r="O74" s="62">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P74" s="65"/>
-      <c r="Q74" s="65"/>
-      <c r="R74" s="66"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="63"/>
     </row>
     <row r="75" spans="4:18">
-      <c r="K75" s="64"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="66"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="63"/>
     </row>
     <row r="76" spans="4:18">
-      <c r="K76" s="70" t="s">
+      <c r="K76" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L76" s="65" t="s">
+      <c r="L76" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M76" s="71" t="s">
+      <c r="M76" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="N76" s="65">
+      <c r="N76" s="62">
         <f>MIN(L78:L89)</f>
         <v>0</v>
       </c>
-      <c r="O76" s="71" t="s">
+      <c r="O76" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P76" s="65">
+      <c r="P76" s="62">
         <f>MAX(L78:L89)</f>
         <v>0</v>
       </c>
-      <c r="Q76" s="71" t="s">
+      <c r="Q76" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="R76" s="66">
+      <c r="R76" s="63">
         <f>IF(L56="MIN",MIN($H$53:$H$64),MAX($H$53:$H$64))</f>
         <v>160</v>
       </c>
@@ -5693,1229 +5755,1229 @@
         <f>SUM(F68)</f>
         <v>4</v>
       </c>
-      <c r="K77" s="70" t="s">
+      <c r="K77" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L77" s="71" t="s">
+      <c r="L77" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M77" s="81" t="s">
+      <c r="M77" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N77" s="81"/>
-      <c r="O77" s="71" t="s">
+      <c r="N77" s="86"/>
+      <c r="O77" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="66"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="63"/>
     </row>
     <row r="78" spans="4:18">
-      <c r="K78" s="67" t="s">
+      <c r="K78" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L78" s="65">
+      <c r="L78" s="62">
         <f>H53-$R$76</f>
         <v>0</v>
       </c>
-      <c r="M78" s="82">
+      <c r="M78" s="85">
         <f>IF(P76=0,0,(L78-N76)/($P$76-$N$76))</f>
         <v>0</v>
       </c>
-      <c r="N78" s="82"/>
-      <c r="O78" s="65">
+      <c r="N78" s="85"/>
+      <c r="O78" s="62">
         <f>IF($L$55="MIN",(M78*-1+1),M78)</f>
         <v>1</v>
       </c>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="66"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="63"/>
     </row>
     <row r="79" spans="4:18">
-      <c r="K79" s="67" t="s">
+      <c r="K79" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="L79" s="65">
+      <c r="L79" s="62">
         <f t="shared" ref="L79:L89" si="12">H54-$R$76</f>
         <v>0</v>
       </c>
-      <c r="M79" s="82">
+      <c r="M79" s="85">
         <f t="shared" ref="M79:M89" si="13">IF(P77=0,0,(L79-N77)/($P$76-$N$76))</f>
         <v>0</v>
       </c>
-      <c r="N79" s="82"/>
-      <c r="O79" s="65">
+      <c r="N79" s="85"/>
+      <c r="O79" s="62">
         <f t="shared" ref="O79:O89" si="14">IF($L$55="MIN",(M79*-1+1),M79)</f>
         <v>1</v>
       </c>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="66"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="63"/>
     </row>
     <row r="80" spans="4:18">
-      <c r="K80" s="67" t="s">
+      <c r="K80" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="L80" s="65">
+      <c r="L80" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M80" s="82">
+      <c r="M80" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N80" s="82"/>
-      <c r="O80" s="65">
+      <c r="N80" s="85"/>
+      <c r="O80" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="65"/>
-      <c r="R80" s="66"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="63"/>
     </row>
     <row r="81" spans="11:18">
-      <c r="K81" s="67" t="s">
+      <c r="K81" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L81" s="65">
+      <c r="L81" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M81" s="82">
+      <c r="M81" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N81" s="82"/>
-      <c r="O81" s="65">
+      <c r="N81" s="85"/>
+      <c r="O81" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="65"/>
-      <c r="R81" s="66"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="63"/>
     </row>
     <row r="82" spans="11:18">
-      <c r="K82" s="67" t="s">
+      <c r="K82" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="L82" s="65">
+      <c r="L82" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M82" s="82">
+      <c r="M82" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N82" s="82"/>
-      <c r="O82" s="65">
+      <c r="N82" s="85"/>
+      <c r="O82" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="65"/>
-      <c r="R82" s="66"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="63"/>
     </row>
     <row r="83" spans="11:18">
-      <c r="K83" s="67" t="s">
+      <c r="K83" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="L83" s="65">
+      <c r="L83" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M83" s="82">
+      <c r="M83" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N83" s="82"/>
-      <c r="O83" s="65">
+      <c r="N83" s="85"/>
+      <c r="O83" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="66"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="63"/>
     </row>
     <row r="84" spans="11:18">
-      <c r="K84" s="67" t="s">
+      <c r="K84" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="L84" s="65">
+      <c r="L84" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M84" s="82">
+      <c r="M84" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N84" s="82"/>
-      <c r="O84" s="65">
+      <c r="N84" s="85"/>
+      <c r="O84" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P84" s="65"/>
-      <c r="Q84" s="65"/>
-      <c r="R84" s="66"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="63"/>
     </row>
     <row r="85" spans="11:18">
-      <c r="K85" s="67" t="s">
+      <c r="K85" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L85" s="65">
+      <c r="L85" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M85" s="82">
+      <c r="M85" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N85" s="82"/>
-      <c r="O85" s="65">
+      <c r="N85" s="85"/>
+      <c r="O85" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="66"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="63"/>
     </row>
     <row r="86" spans="11:18">
-      <c r="K86" s="67" t="s">
+      <c r="K86" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="L86" s="65">
+      <c r="L86" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M86" s="82">
+      <c r="M86" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N86" s="82"/>
-      <c r="O86" s="65">
+      <c r="N86" s="85"/>
+      <c r="O86" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="65"/>
-      <c r="R86" s="66"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="63"/>
     </row>
     <row r="87" spans="11:18">
-      <c r="K87" s="67" t="s">
+      <c r="K87" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="L87" s="65">
+      <c r="L87" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M87" s="82">
+      <c r="M87" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N87" s="82"/>
-      <c r="O87" s="65">
+      <c r="N87" s="85"/>
+      <c r="O87" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="66"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="63"/>
     </row>
     <row r="88" spans="11:18">
-      <c r="K88" s="67" t="s">
+      <c r="K88" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="L88" s="65">
+      <c r="L88" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M88" s="82">
+      <c r="M88" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="65">
+      <c r="N88" s="85"/>
+      <c r="O88" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="R88" s="66"/>
+      <c r="P88" s="62"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="63"/>
     </row>
     <row r="89" spans="11:18">
-      <c r="K89" s="67" t="s">
+      <c r="K89" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="L89" s="65">
+      <c r="L89" s="62">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M89" s="82">
+      <c r="M89" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N89" s="82"/>
-      <c r="O89" s="65">
+      <c r="N89" s="85"/>
+      <c r="O89" s="62">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P89" s="65"/>
-      <c r="Q89" s="65"/>
-      <c r="R89" s="66"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="63"/>
     </row>
     <row r="90" spans="11:18">
-      <c r="K90" s="64"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="65"/>
-      <c r="O90" s="65"/>
-      <c r="P90" s="65"/>
-      <c r="Q90" s="65"/>
-      <c r="R90" s="66"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="63"/>
     </row>
     <row r="91" spans="11:18">
-      <c r="K91" s="70" t="s">
+      <c r="K91" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L91" s="65" t="s">
+      <c r="L91" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="M91" s="71" t="s">
+      <c r="M91" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="N91" s="65">
+      <c r="N91" s="62">
         <f>MIN(L93:L104)</f>
         <v>0</v>
       </c>
-      <c r="O91" s="71" t="s">
+      <c r="O91" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P91" s="65">
+      <c r="P91" s="62">
         <f>MAX(L93:L104)</f>
         <v>460800</v>
       </c>
-      <c r="Q91" s="71" t="s">
+      <c r="Q91" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="R91" s="66">
+      <c r="R91" s="63">
         <f>IF(L57="MIN",MIN($G$53:$G$64),MAX($G$53:$G$64))</f>
         <v>512000</v>
       </c>
     </row>
     <row r="92" spans="11:18">
-      <c r="K92" s="70" t="s">
+      <c r="K92" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L92" s="71" t="s">
+      <c r="L92" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M92" s="81" t="s">
+      <c r="M92" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N92" s="81"/>
-      <c r="O92" s="71" t="s">
+      <c r="N92" s="86"/>
+      <c r="O92" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P92" s="65"/>
-      <c r="Q92" s="65"/>
-      <c r="R92" s="66"/>
+      <c r="P92" s="62"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="63"/>
     </row>
     <row r="93" spans="11:18">
-      <c r="K93" s="67" t="s">
+      <c r="K93" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L93" s="65">
+      <c r="L93" s="62">
         <f>ABS(G53-$R$91)</f>
         <v>460800</v>
       </c>
-      <c r="M93" s="82">
+      <c r="M93" s="85">
         <f>IF($P$91=0,0,(L93-$N$91)/($P$91-$N$91))</f>
         <v>1</v>
       </c>
-      <c r="N93" s="82"/>
-      <c r="O93" s="65">
+      <c r="N93" s="85"/>
+      <c r="O93" s="62">
         <f>(M93*-1+1)</f>
         <v>0</v>
       </c>
-      <c r="P93" s="65"/>
-      <c r="Q93" s="65"/>
-      <c r="R93" s="66"/>
+      <c r="P93" s="62"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="63"/>
     </row>
     <row r="94" spans="11:18">
-      <c r="K94" s="67" t="s">
+      <c r="K94" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="L94" s="65">
+      <c r="L94" s="62">
         <f t="shared" ref="L94:L104" si="15">ABS(G54-$R$91)</f>
         <v>460800</v>
       </c>
-      <c r="M94" s="82">
+      <c r="M94" s="85">
         <f t="shared" ref="M94:M104" si="16">IF($P$91=0,0,(L94-$N$91)/($P$91-$N$91))</f>
         <v>1</v>
       </c>
-      <c r="N94" s="82"/>
-      <c r="O94" s="65">
+      <c r="N94" s="85"/>
+      <c r="O94" s="62">
         <f t="shared" ref="O94:O104" si="17">(M94*-1+1)</f>
         <v>0</v>
       </c>
-      <c r="P94" s="65"/>
-      <c r="Q94" s="65"/>
-      <c r="R94" s="66"/>
+      <c r="P94" s="62"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="63"/>
     </row>
     <row r="95" spans="11:18">
-      <c r="K95" s="67" t="s">
+      <c r="K95" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="L95" s="65">
+      <c r="L95" s="62">
         <f t="shared" si="15"/>
         <v>358400</v>
       </c>
-      <c r="M95" s="82">
+      <c r="M95" s="85">
         <f t="shared" si="16"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="N95" s="82"/>
-      <c r="O95" s="65">
+      <c r="N95" s="85"/>
+      <c r="O95" s="62">
         <f t="shared" si="17"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="66"/>
+      <c r="P95" s="62"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="63"/>
     </row>
     <row r="96" spans="11:18">
-      <c r="K96" s="67" t="s">
+      <c r="K96" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L96" s="65">
+      <c r="L96" s="62">
         <f t="shared" si="15"/>
         <v>358400</v>
       </c>
-      <c r="M96" s="82">
+      <c r="M96" s="85">
         <f t="shared" si="16"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="N96" s="82"/>
-      <c r="O96" s="65">
+      <c r="N96" s="85"/>
+      <c r="O96" s="62">
         <f t="shared" si="17"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="66"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="63"/>
     </row>
     <row r="97" spans="11:18">
-      <c r="K97" s="67" t="s">
+      <c r="K97" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="L97" s="65">
+      <c r="L97" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M97" s="82">
+      <c r="M97" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N97" s="82"/>
-      <c r="O97" s="65">
+      <c r="N97" s="85"/>
+      <c r="O97" s="62">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="P97" s="65"/>
-      <c r="Q97" s="65"/>
-      <c r="R97" s="66"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="63"/>
     </row>
     <row r="98" spans="11:18">
-      <c r="K98" s="67" t="s">
+      <c r="K98" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="L98" s="65">
+      <c r="L98" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M98" s="82">
+      <c r="M98" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N98" s="82"/>
-      <c r="O98" s="65">
+      <c r="N98" s="85"/>
+      <c r="O98" s="62">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="P98" s="65"/>
-      <c r="Q98" s="65"/>
-      <c r="R98" s="66"/>
+      <c r="P98" s="62"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="63"/>
     </row>
     <row r="99" spans="11:18">
-      <c r="K99" s="67" t="s">
+      <c r="K99" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="L99" s="65">
+      <c r="L99" s="62">
         <f t="shared" si="15"/>
         <v>460800</v>
       </c>
-      <c r="M99" s="82">
+      <c r="M99" s="85">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="N99" s="82"/>
-      <c r="O99" s="65">
+      <c r="N99" s="85"/>
+      <c r="O99" s="62">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P99" s="65"/>
-      <c r="Q99" s="65"/>
-      <c r="R99" s="66"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="63"/>
     </row>
     <row r="100" spans="11:18">
-      <c r="K100" s="67" t="s">
+      <c r="K100" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L100" s="65">
+      <c r="L100" s="62">
         <f t="shared" si="15"/>
         <v>460800</v>
       </c>
-      <c r="M100" s="82">
+      <c r="M100" s="85">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="N100" s="82"/>
-      <c r="O100" s="65">
+      <c r="N100" s="85"/>
+      <c r="O100" s="62">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="R100" s="66"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="63"/>
     </row>
     <row r="101" spans="11:18">
-      <c r="K101" s="67" t="s">
+      <c r="K101" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="L101" s="65">
+      <c r="L101" s="62">
         <f t="shared" si="15"/>
         <v>358400</v>
       </c>
-      <c r="M101" s="82">
+      <c r="M101" s="85">
         <f t="shared" si="16"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="N101" s="82"/>
-      <c r="O101" s="65">
+      <c r="N101" s="85"/>
+      <c r="O101" s="62">
         <f t="shared" si="17"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="66"/>
+      <c r="P101" s="62"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="63"/>
     </row>
     <row r="102" spans="11:18">
-      <c r="K102" s="67" t="s">
+      <c r="K102" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="L102" s="65">
+      <c r="L102" s="62">
         <f t="shared" si="15"/>
         <v>358400</v>
       </c>
-      <c r="M102" s="82">
+      <c r="M102" s="85">
         <f t="shared" si="16"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="N102" s="82"/>
-      <c r="O102" s="65">
+      <c r="N102" s="85"/>
+      <c r="O102" s="62">
         <f t="shared" si="17"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="P102" s="65"/>
-      <c r="Q102" s="65"/>
-      <c r="R102" s="66"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="63"/>
     </row>
     <row r="103" spans="11:18">
-      <c r="K103" s="67" t="s">
+      <c r="K103" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="L103" s="65">
+      <c r="L103" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M103" s="82">
+      <c r="M103" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N103" s="82"/>
-      <c r="O103" s="65">
+      <c r="N103" s="85"/>
+      <c r="O103" s="62">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="66"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="63"/>
     </row>
     <row r="104" spans="11:18">
-      <c r="K104" s="67" t="s">
+      <c r="K104" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="L104" s="65">
+      <c r="L104" s="62">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M104" s="82">
+      <c r="M104" s="85">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N104" s="82"/>
-      <c r="O104" s="65">
+      <c r="N104" s="85"/>
+      <c r="O104" s="62">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="66"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="63"/>
     </row>
     <row r="105" spans="11:18">
-      <c r="K105" s="64"/>
-      <c r="L105" s="65"/>
-      <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="65"/>
-      <c r="P105" s="65"/>
-      <c r="Q105" s="65"/>
-      <c r="R105" s="66"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="62"/>
+      <c r="O105" s="62"/>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="63"/>
     </row>
     <row r="106" spans="11:18">
-      <c r="K106" s="70" t="s">
+      <c r="K106" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L106" s="65" t="s">
+      <c r="L106" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="M106" s="71" t="s">
+      <c r="M106" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="N106" s="65">
+      <c r="N106" s="62">
         <f>MIN(L108:L119)</f>
         <v>0</v>
       </c>
-      <c r="O106" s="71" t="s">
+      <c r="O106" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P106" s="65">
+      <c r="P106" s="62">
         <f>MAX(L108:L119)</f>
         <v>3</v>
       </c>
-      <c r="Q106" s="71" t="s">
+      <c r="Q106" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="R106" s="66" t="s">
+      <c r="R106" s="63" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="107" spans="11:18">
-      <c r="K107" s="70" t="s">
+      <c r="K107" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L107" s="71" t="s">
+      <c r="L107" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M107" s="81" t="s">
+      <c r="M107" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N107" s="81"/>
-      <c r="O107" s="71" t="s">
+      <c r="N107" s="86"/>
+      <c r="O107" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P107" s="72"/>
-      <c r="Q107" s="71" t="s">
+      <c r="P107" s="69"/>
+      <c r="Q107" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="R107" s="66"/>
+      <c r="R107" s="63"/>
     </row>
     <row r="108" spans="11:18">
-      <c r="K108" s="67" t="s">
+      <c r="K108" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L108" s="65">
+      <c r="L108" s="62">
         <f>IF(F53="High", 0,IF(F53="Low",$R$108,-1))</f>
         <v>0</v>
       </c>
-      <c r="M108" s="82">
+      <c r="M108" s="85">
         <f>IF($P$106=0,0,(L108-$N$106)/($P$106-$N$106))</f>
         <v>0</v>
       </c>
-      <c r="N108" s="82"/>
-      <c r="O108" s="65">
+      <c r="N108" s="85"/>
+      <c r="O108" s="62">
         <f>(M108*-1+1)</f>
         <v>1</v>
       </c>
-      <c r="P108" s="65"/>
-      <c r="Q108" s="65" t="s">
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="R108" s="66">
+      <c r="R108" s="63">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="11:18">
-      <c r="K109" s="67" t="s">
+      <c r="K109" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="L109" s="65">
+      <c r="L109" s="62">
         <f t="shared" ref="L109:L119" si="18">IF(F54="High", 0,IF(F54="Low",$R$108,-1))</f>
         <v>0</v>
       </c>
-      <c r="M109" s="82">
+      <c r="M109" s="85">
         <f t="shared" ref="M109:M119" si="19">IF($P$106=0,0,(L109-$N$106)/($P$106-$N$106))</f>
         <v>0</v>
       </c>
-      <c r="N109" s="82"/>
-      <c r="O109" s="65">
+      <c r="N109" s="85"/>
+      <c r="O109" s="62">
         <f t="shared" ref="O109:O119" si="20">(M109*-1+1)</f>
         <v>1</v>
       </c>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65" t="s">
+      <c r="P109" s="62"/>
+      <c r="Q109" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="R109" s="66">
+      <c r="R109" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="11:18">
-      <c r="K110" s="67" t="s">
+      <c r="K110" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="L110" s="65">
+      <c r="L110" s="62">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M110" s="82">
+      <c r="M110" s="85">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N110" s="82"/>
-      <c r="O110" s="65">
+      <c r="N110" s="85"/>
+      <c r="O110" s="62">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="65"/>
-      <c r="R110" s="66"/>
+      <c r="P110" s="62"/>
+      <c r="Q110" s="62"/>
+      <c r="R110" s="63"/>
     </row>
     <row r="111" spans="11:18">
-      <c r="K111" s="67" t="s">
+      <c r="K111" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L111" s="65">
+      <c r="L111" s="62">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M111" s="82">
+      <c r="M111" s="85">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N111" s="82"/>
-      <c r="O111" s="65">
+      <c r="N111" s="85"/>
+      <c r="O111" s="62">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="66"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="63"/>
     </row>
     <row r="112" spans="11:18">
-      <c r="K112" s="67" t="s">
+      <c r="K112" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="L112" s="65">
+      <c r="L112" s="62">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M112" s="82">
+      <c r="M112" s="85">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N112" s="82"/>
-      <c r="O112" s="65">
+      <c r="N112" s="85"/>
+      <c r="O112" s="62">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="P112" s="65"/>
-      <c r="Q112" s="65"/>
-      <c r="R112" s="66"/>
+      <c r="P112" s="62"/>
+      <c r="Q112" s="62"/>
+      <c r="R112" s="63"/>
     </row>
     <row r="113" spans="11:18">
-      <c r="K113" s="67" t="s">
+      <c r="K113" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="L113" s="65">
+      <c r="L113" s="62">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M113" s="82">
+      <c r="M113" s="85">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N113" s="82"/>
-      <c r="O113" s="65">
+      <c r="N113" s="85"/>
+      <c r="O113" s="62">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="66"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="62"/>
+      <c r="R113" s="63"/>
     </row>
     <row r="114" spans="11:18">
-      <c r="K114" s="67" t="s">
+      <c r="K114" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="L114" s="65">
+      <c r="L114" s="62">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M114" s="82">
+      <c r="M114" s="85">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N114" s="82"/>
-      <c r="O114" s="65">
+      <c r="N114" s="85"/>
+      <c r="O114" s="62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P114" s="65"/>
-      <c r="Q114" s="65"/>
-      <c r="R114" s="66"/>
+      <c r="P114" s="62"/>
+      <c r="Q114" s="62"/>
+      <c r="R114" s="63"/>
     </row>
     <row r="115" spans="11:18">
-      <c r="K115" s="67" t="s">
+      <c r="K115" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L115" s="65">
+      <c r="L115" s="62">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M115" s="82">
+      <c r="M115" s="85">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N115" s="82"/>
-      <c r="O115" s="65">
+      <c r="N115" s="85"/>
+      <c r="O115" s="62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="66"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="63"/>
     </row>
     <row r="116" spans="11:18">
-      <c r="K116" s="67" t="s">
+      <c r="K116" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="L116" s="65">
+      <c r="L116" s="62">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M116" s="82">
+      <c r="M116" s="85">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N116" s="82"/>
-      <c r="O116" s="65">
+      <c r="N116" s="85"/>
+      <c r="O116" s="62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P116" s="65"/>
-      <c r="Q116" s="65"/>
-      <c r="R116" s="66"/>
+      <c r="P116" s="62"/>
+      <c r="Q116" s="62"/>
+      <c r="R116" s="63"/>
     </row>
     <row r="117" spans="11:18">
-      <c r="K117" s="67" t="s">
+      <c r="K117" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="L117" s="65">
+      <c r="L117" s="62">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M117" s="82">
+      <c r="M117" s="85">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N117" s="82"/>
-      <c r="O117" s="65">
+      <c r="N117" s="85"/>
+      <c r="O117" s="62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="65"/>
-      <c r="R117" s="66"/>
+      <c r="P117" s="62"/>
+      <c r="Q117" s="62"/>
+      <c r="R117" s="63"/>
     </row>
     <row r="118" spans="11:18">
-      <c r="K118" s="67" t="s">
+      <c r="K118" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="L118" s="65">
+      <c r="L118" s="62">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M118" s="82">
+      <c r="M118" s="85">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N118" s="82"/>
-      <c r="O118" s="65">
+      <c r="N118" s="85"/>
+      <c r="O118" s="62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="65"/>
-      <c r="R118" s="66"/>
+      <c r="P118" s="62"/>
+      <c r="Q118" s="62"/>
+      <c r="R118" s="63"/>
     </row>
     <row r="119" spans="11:18">
-      <c r="K119" s="67" t="s">
+      <c r="K119" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="L119" s="65">
+      <c r="L119" s="62">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="M119" s="82">
+      <c r="M119" s="85">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N119" s="82"/>
-      <c r="O119" s="65">
+      <c r="N119" s="85"/>
+      <c r="O119" s="62">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="65"/>
-      <c r="R119" s="66"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="63"/>
     </row>
     <row r="120" spans="11:18">
-      <c r="K120" s="64"/>
-      <c r="L120" s="65"/>
-      <c r="M120" s="65"/>
-      <c r="N120" s="65"/>
-      <c r="O120" s="65"/>
-      <c r="P120" s="65"/>
-      <c r="Q120" s="65"/>
-      <c r="R120" s="66"/>
+      <c r="K120" s="61"/>
+      <c r="L120" s="62"/>
+      <c r="M120" s="62"/>
+      <c r="N120" s="62"/>
+      <c r="O120" s="62"/>
+      <c r="P120" s="62"/>
+      <c r="Q120" s="62"/>
+      <c r="R120" s="63"/>
     </row>
     <row r="121" spans="11:18">
-      <c r="K121" s="70" t="s">
+      <c r="K121" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L121" s="65" t="s">
+      <c r="L121" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="M121" s="71" t="s">
+      <c r="M121" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="N121" s="65">
+      <c r="N121" s="62">
         <f>MIN(L123:L134)</f>
         <v>0</v>
       </c>
-      <c r="O121" s="71" t="s">
+      <c r="O121" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P121" s="65">
+      <c r="P121" s="62">
         <f>MAX(L123:L134)</f>
         <v>0</v>
       </c>
-      <c r="Q121" s="71" t="s">
+      <c r="Q121" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="R121" s="66" t="s">
+      <c r="R121" s="63" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122" spans="11:18">
-      <c r="K122" s="70" t="s">
+      <c r="K122" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L122" s="71" t="s">
+      <c r="L122" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M122" s="81" t="s">
+      <c r="M122" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N122" s="81"/>
-      <c r="O122" s="71" t="s">
+      <c r="N122" s="86"/>
+      <c r="O122" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="P122" s="72"/>
-      <c r="Q122" s="71" t="s">
+      <c r="P122" s="69"/>
+      <c r="Q122" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="R122" s="66"/>
+      <c r="R122" s="63"/>
     </row>
     <row r="123" spans="11:18">
-      <c r="K123" s="67" t="s">
+      <c r="K123" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="L123" s="65">
+      <c r="L123" s="62">
         <f>IF(I53=$Q$124,$R$124,IF(I53=$Q$123,$R$123,-1))</f>
         <v>0</v>
       </c>
-      <c r="M123" s="82">
+      <c r="M123" s="85">
         <f>IF($P$121=0,0,(L123-$N$121)/($P$121-$N$121))</f>
         <v>0</v>
       </c>
-      <c r="N123" s="82"/>
-      <c r="O123" s="65">
+      <c r="N123" s="85"/>
+      <c r="O123" s="62">
         <f>(M123*-1+1)</f>
         <v>1</v>
       </c>
-      <c r="P123" s="65"/>
-      <c r="Q123" s="65" t="s">
+      <c r="P123" s="62"/>
+      <c r="Q123" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="R123" s="66">
+      <c r="R123" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="11:18">
-      <c r="K124" s="67" t="s">
+      <c r="K124" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="L124" s="65">
+      <c r="L124" s="62">
         <f t="shared" ref="L124:L134" si="21">IF(I54=$Q$124,$R$124,IF(I54=$Q$123,$R$123,-1))</f>
         <v>0</v>
       </c>
-      <c r="M124" s="82">
+      <c r="M124" s="85">
         <f t="shared" ref="M124:M134" si="22">IF($P$121=0,0,(L124-$N$121)/($P$121-$N$121))</f>
         <v>0</v>
       </c>
-      <c r="N124" s="82"/>
-      <c r="O124" s="65">
+      <c r="N124" s="85"/>
+      <c r="O124" s="62">
         <f t="shared" ref="O124:O134" si="23">(M124*-1+1)</f>
         <v>1</v>
       </c>
-      <c r="P124" s="65"/>
-      <c r="Q124" s="65" t="s">
+      <c r="P124" s="62"/>
+      <c r="Q124" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="R124" s="66">
+      <c r="R124" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="11:18">
-      <c r="K125" s="67" t="s">
+      <c r="K125" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="L125" s="65">
+      <c r="L125" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M125" s="82">
+      <c r="M125" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N125" s="82"/>
-      <c r="O125" s="65">
+      <c r="N125" s="85"/>
+      <c r="O125" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P125" s="65"/>
-      <c r="Q125" s="65"/>
-      <c r="R125" s="66"/>
+      <c r="P125" s="62"/>
+      <c r="Q125" s="62"/>
+      <c r="R125" s="63"/>
     </row>
     <row r="126" spans="11:18">
-      <c r="K126" s="67" t="s">
+      <c r="K126" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="L126" s="65">
+      <c r="L126" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M126" s="82">
+      <c r="M126" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N126" s="82"/>
-      <c r="O126" s="65">
+      <c r="N126" s="85"/>
+      <c r="O126" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P126" s="65"/>
-      <c r="Q126" s="65"/>
-      <c r="R126" s="66"/>
+      <c r="P126" s="62"/>
+      <c r="Q126" s="62"/>
+      <c r="R126" s="63"/>
     </row>
     <row r="127" spans="11:18">
-      <c r="K127" s="67" t="s">
+      <c r="K127" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="L127" s="65">
+      <c r="L127" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M127" s="82">
+      <c r="M127" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N127" s="82"/>
-      <c r="O127" s="65">
+      <c r="N127" s="85"/>
+      <c r="O127" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="65"/>
-      <c r="R127" s="66"/>
+      <c r="P127" s="62"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="63"/>
     </row>
     <row r="128" spans="11:18">
-      <c r="K128" s="67" t="s">
+      <c r="K128" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="L128" s="65">
+      <c r="L128" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M128" s="82">
+      <c r="M128" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N128" s="82"/>
-      <c r="O128" s="65">
+      <c r="N128" s="85"/>
+      <c r="O128" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P128" s="65"/>
-      <c r="Q128" s="65"/>
-      <c r="R128" s="66"/>
+      <c r="P128" s="62"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="63"/>
     </row>
     <row r="129" spans="11:18">
-      <c r="K129" s="67" t="s">
+      <c r="K129" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="L129" s="65">
+      <c r="L129" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M129" s="82">
+      <c r="M129" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N129" s="82"/>
-      <c r="O129" s="65">
+      <c r="N129" s="85"/>
+      <c r="O129" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P129" s="65"/>
-      <c r="Q129" s="65"/>
-      <c r="R129" s="66"/>
+      <c r="P129" s="62"/>
+      <c r="Q129" s="62"/>
+      <c r="R129" s="63"/>
     </row>
     <row r="130" spans="11:18">
-      <c r="K130" s="67" t="s">
+      <c r="K130" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L130" s="65">
+      <c r="L130" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M130" s="82">
+      <c r="M130" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N130" s="82"/>
-      <c r="O130" s="65">
+      <c r="N130" s="85"/>
+      <c r="O130" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P130" s="65"/>
-      <c r="Q130" s="65"/>
-      <c r="R130" s="66"/>
+      <c r="P130" s="62"/>
+      <c r="Q130" s="62"/>
+      <c r="R130" s="63"/>
     </row>
     <row r="131" spans="11:18">
-      <c r="K131" s="67" t="s">
+      <c r="K131" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="L131" s="65">
+      <c r="L131" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M131" s="82">
+      <c r="M131" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N131" s="82"/>
-      <c r="O131" s="65">
+      <c r="N131" s="85"/>
+      <c r="O131" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P131" s="65"/>
-      <c r="Q131" s="65"/>
-      <c r="R131" s="66"/>
+      <c r="P131" s="62"/>
+      <c r="Q131" s="62"/>
+      <c r="R131" s="63"/>
     </row>
     <row r="132" spans="11:18">
-      <c r="K132" s="67" t="s">
+      <c r="K132" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="L132" s="65">
+      <c r="L132" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M132" s="82">
+      <c r="M132" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N132" s="82"/>
-      <c r="O132" s="65">
+      <c r="N132" s="85"/>
+      <c r="O132" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P132" s="65"/>
-      <c r="Q132" s="65"/>
-      <c r="R132" s="66"/>
+      <c r="P132" s="62"/>
+      <c r="Q132" s="62"/>
+      <c r="R132" s="63"/>
     </row>
     <row r="133" spans="11:18">
-      <c r="K133" s="67" t="s">
+      <c r="K133" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="L133" s="65">
+      <c r="L133" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M133" s="82">
+      <c r="M133" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N133" s="82"/>
-      <c r="O133" s="65">
+      <c r="N133" s="85"/>
+      <c r="O133" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="65"/>
-      <c r="R133" s="66"/>
+      <c r="P133" s="62"/>
+      <c r="Q133" s="62"/>
+      <c r="R133" s="63"/>
     </row>
     <row r="134" spans="11:18">
-      <c r="K134" s="67" t="s">
+      <c r="K134" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="L134" s="65">
+      <c r="L134" s="62">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M134" s="82">
+      <c r="M134" s="85">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N134" s="82"/>
-      <c r="O134" s="65">
+      <c r="N134" s="85"/>
+      <c r="O134" s="62">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="65"/>
-      <c r="R134" s="66"/>
+      <c r="P134" s="62"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="63"/>
     </row>
     <row r="135" spans="11:18">
-      <c r="K135" s="64"/>
-      <c r="L135" s="65"/>
-      <c r="M135" s="65"/>
-      <c r="N135" s="65"/>
-      <c r="O135" s="65"/>
-      <c r="P135" s="65"/>
-      <c r="Q135" s="65"/>
-      <c r="R135" s="66"/>
+      <c r="K135" s="61"/>
+      <c r="L135" s="62"/>
+      <c r="M135" s="62"/>
+      <c r="N135" s="62"/>
+      <c r="O135" s="62"/>
+      <c r="P135" s="62"/>
+      <c r="Q135" s="62"/>
+      <c r="R135" s="63"/>
     </row>
   </sheetData>
   <sortState ref="D51:I62">
@@ -6939,6 +7001,7 @@
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="AE24:AF24"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M32:N32"/>
@@ -6992,10 +7055,6 @@
     <mergeCell ref="M86:N86"/>
     <mergeCell ref="M87:N87"/>
     <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M119:N119"/>
     <mergeCell ref="M132:N132"/>
     <mergeCell ref="M133:N133"/>
     <mergeCell ref="M134:N134"/>
@@ -7004,7 +7063,6 @@
     <mergeCell ref="M115:N115"/>
     <mergeCell ref="M116:N116"/>
     <mergeCell ref="M117:N117"/>
-    <mergeCell ref="E7:H7"/>
     <mergeCell ref="M122:N122"/>
     <mergeCell ref="M123:N123"/>
     <mergeCell ref="M124:N124"/>
@@ -7013,21 +7071,25 @@
     <mergeCell ref="M127:N127"/>
     <mergeCell ref="M128:N128"/>
     <mergeCell ref="M129:N129"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M111:N111"/>
     <mergeCell ref="M112:N112"/>
     <mergeCell ref="M101:N101"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="M103:N103"/>
     <mergeCell ref="M104:N104"/>
     <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M119:N119"/>
     <mergeCell ref="M96:N96"/>
     <mergeCell ref="M97:N97"/>
     <mergeCell ref="M98:N98"/>
     <mergeCell ref="M99:N99"/>
     <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M111:N111"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7051,1069 +7113,1037 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="N34" sqref="A1:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="13" max="13" width="43.5" customWidth="1"/>
-    <col min="18" max="18" width="65" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="42" customWidth="1"/>
+    <col min="12" max="12" width="43.5" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:17" ht="20">
+      <c r="A1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="I2" s="79"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="80">
         <v>41421</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="I3" s="79"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" ht="41" customHeight="1">
+      <c r="I4" s="79"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" ht="41" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="80">
         <v>41421</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="I5" s="79"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="27" t="s">
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="N12" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-    </row>
-    <row r="13" spans="1:18" ht="31" customHeight="1">
-      <c r="A13" s="30">
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+    </row>
+    <row r="13" spans="1:17" ht="31" customHeight="1">
+      <c r="A13" s="29">
         <v>1</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="88" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="88" t="s">
+      <c r="F13" s="94"/>
+      <c r="G13" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="88" t="s">
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="31" t="s">
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
-    </row>
-    <row r="14" spans="1:18" ht="29" customHeight="1">
-      <c r="A14" s="30">
+      <c r="N13" s="93"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+    </row>
+    <row r="14" spans="1:17" ht="29" customHeight="1">
+      <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="88" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="88" t="s">
+      <c r="F14" s="94"/>
+      <c r="G14" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="88" t="s">
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="31" t="s">
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
-    </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1">
-      <c r="A15" s="30">
+      <c r="N14" s="93"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1">
+      <c r="A15" s="29">
         <v>3</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="88" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="88" t="s">
+      <c r="F15" s="94"/>
+      <c r="G15" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="88" t="s">
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="31" t="s">
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-    </row>
-    <row r="16" spans="1:18" ht="29" customHeight="1">
-      <c r="A16" s="30">
+      <c r="N15" s="93"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+    </row>
+    <row r="16" spans="1:17" ht="29" customHeight="1">
+      <c r="A16" s="29">
         <v>4</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="88" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="88" t="s">
+      <c r="F16" s="94"/>
+      <c r="G16" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="88" t="s">
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="31" t="s">
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1">
-      <c r="A17" s="30">
+      <c r="N16" s="93"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1">
+      <c r="A17" s="29">
         <v>5</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="88" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="88" t="s">
+      <c r="F17" s="94"/>
+      <c r="G17" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="88" t="s">
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="31" t="s">
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="90"/>
-    </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1">
-      <c r="A18" s="30">
+      <c r="N17" s="93"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1">
+      <c r="A18" s="29">
         <v>6</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="88" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="88" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="88" t="s">
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="31" t="s">
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1">
-      <c r="A19" s="30">
+      <c r="N18" s="93"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1">
+      <c r="A19" s="29">
         <v>7</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="88" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88" t="s">
+      <c r="F19" s="94"/>
+      <c r="G19" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="88" t="s">
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="31" t="s">
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
-    </row>
-    <row r="20" spans="1:18" ht="29" customHeight="1">
-      <c r="A20" s="30">
+      <c r="N19" s="93"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+    </row>
+    <row r="20" spans="1:17" ht="29" customHeight="1">
+      <c r="A20" s="29">
         <v>8</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="88" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="88" t="s">
+      <c r="F20" s="94"/>
+      <c r="G20" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="88" t="s">
+      <c r="H20" s="94"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="31" t="s">
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="88"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
-    </row>
-    <row r="21" spans="1:18" ht="30" customHeight="1">
-      <c r="A21" s="30">
+      <c r="N20" s="93"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1">
+      <c r="A21" s="29">
         <v>9</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="88" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="88" t="s">
+      <c r="F21" s="94"/>
+      <c r="G21" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="88" t="s">
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="31" t="s">
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="88"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="90"/>
-    </row>
-    <row r="22" spans="1:18" ht="29" customHeight="1">
-      <c r="A22" s="30">
+      <c r="N21" s="93"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+    </row>
+    <row r="22" spans="1:17" ht="29" customHeight="1">
+      <c r="A22" s="29">
         <v>10</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="88" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88" t="s">
+      <c r="F22" s="94"/>
+      <c r="G22" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="88" t="s">
+      <c r="H22" s="94"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="31" t="s">
+      <c r="K22" s="94"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="88"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
-    </row>
-    <row r="23" spans="1:18" ht="30" customHeight="1">
-      <c r="A23" s="30">
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+    </row>
+    <row r="23" spans="1:17" ht="30" customHeight="1">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="88" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="88" t="s">
+      <c r="F23" s="94"/>
+      <c r="G23" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="89"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="88" t="s">
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="31" t="s">
+      <c r="K23" s="94"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O23" s="88"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="90"/>
-    </row>
-    <row r="24" spans="1:18" ht="68" customHeight="1">
-      <c r="A24" s="30">
+      <c r="N23" s="93"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+    </row>
+    <row r="24" spans="1:17" ht="68" customHeight="1">
+      <c r="A24" s="29">
         <v>12</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="88" t="s">
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="88" t="s">
+      <c r="F24" s="94"/>
+      <c r="G24" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="88" t="s">
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="31" t="s">
+      <c r="K24" s="94"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="88"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="90"/>
-    </row>
-    <row r="25" spans="1:18" ht="68" customHeight="1">
-      <c r="A25" s="30">
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="68" customHeight="1">
+      <c r="A25" s="29">
         <v>13</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="88" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="89"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="88" t="s">
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="31" t="s">
+      <c r="K25" s="94"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O25" s="88" t="s">
+      <c r="N25" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="90"/>
-    </row>
-    <row r="26" spans="1:18" ht="205" customHeight="1">
-      <c r="A26" s="30">
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+    </row>
+    <row r="26" spans="1:17" ht="205" customHeight="1">
+      <c r="A26" s="29">
         <v>14</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="88" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="89"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="88" t="s">
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="31" t="s">
+      <c r="K26" s="94"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="88" t="s">
+      <c r="N26" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="90"/>
-    </row>
-    <row r="27" spans="1:18" ht="103" customHeight="1">
-      <c r="A27" s="30">
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+    </row>
+    <row r="27" spans="1:17" ht="103" customHeight="1">
+      <c r="A27" s="29">
         <v>15</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="88" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="88" t="s">
+      <c r="H27" s="94"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="31" t="s">
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="88" t="s">
+      <c r="N27" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="90"/>
-    </row>
-    <row r="28" spans="1:18" ht="27" customHeight="1">
-      <c r="A28" s="30">
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+    </row>
+    <row r="28" spans="1:17" ht="27" customHeight="1">
+      <c r="A28" s="29">
         <v>16</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="88" t="s">
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="88" t="s">
+      <c r="H28" s="94"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="31" t="s">
+      <c r="K28" s="94"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="88" t="s">
+      <c r="N28" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="90"/>
-    </row>
-    <row r="29" spans="1:18" ht="409" customHeight="1">
-      <c r="A29" s="30">
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+    </row>
+    <row r="29" spans="1:17" ht="409" customHeight="1">
+      <c r="A29" s="29">
         <v>17</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="88" t="s">
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="88" t="s">
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="89"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="31" t="s">
+      <c r="K29" s="94"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="88" t="s">
+      <c r="N29" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="90"/>
-    </row>
-    <row r="30" spans="1:18" ht="33" customHeight="1">
-      <c r="A30" s="30">
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+    </row>
+    <row r="30" spans="1:17" ht="33" customHeight="1">
+      <c r="A30" s="29">
         <v>18</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="88" t="s">
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="31" t="s">
+      <c r="F30" s="94"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="88"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="90"/>
-    </row>
-    <row r="31" spans="1:18" ht="33" customHeight="1">
-      <c r="A31" s="30">
+      <c r="N30" s="93"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
+    </row>
+    <row r="31" spans="1:17" ht="33" customHeight="1">
+      <c r="A31" s="29">
         <v>19</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="88" t="s">
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="31" t="s">
+      <c r="F31" s="94"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="88"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="90"/>
-    </row>
-    <row r="32" spans="1:18" ht="55" customHeight="1">
-      <c r="A32" s="30">
+      <c r="N31" s="93"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+    </row>
+    <row r="32" spans="1:17" ht="55" customHeight="1">
+      <c r="A32" s="29">
         <v>20</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="88" t="s">
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="88" t="s">
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="L32" s="89"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="31" t="s">
+      <c r="K32" s="94"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O32" s="88" t="s">
+      <c r="N32" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="90"/>
-    </row>
-    <row r="33" spans="1:18" ht="128" customHeight="1">
-      <c r="A33" s="30">
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+    </row>
+    <row r="33" spans="1:17" ht="128" customHeight="1">
+      <c r="A33" s="29">
         <v>21</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="88" t="s">
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="89"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="88" t="s">
+      <c r="H33" s="94"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="89"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="31" t="s">
+      <c r="K33" s="94"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="88" t="s">
+      <c r="N33" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="90"/>
-    </row>
-    <row r="34" spans="1:18" ht="124" customHeight="1">
-      <c r="A34" s="30">
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+    </row>
+    <row r="34" spans="1:17" ht="124" customHeight="1">
+      <c r="A34" s="29">
         <v>22</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="88" t="s">
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="I34" s="89"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="88" t="s">
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="89"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="31" t="s">
+      <c r="K34" s="94"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O34" s="88" t="s">
+      <c r="N34" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="90"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="125">
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N33:Q33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:Q34"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N29:Q29"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N32:Q32"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="N30:Q30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="N31:Q31"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="N28:Q28"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:Q23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="N24:Q24"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="N21:Q21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="N22:Q22"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:Q20"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:Q17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:Q14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:Q15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="A10:M11"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="A10:L11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:Q13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N26:Q26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8130,7 +8160,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8142,734 +8172,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
       <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="103">
         <v>41421</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
       <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="103">
         <v>41421</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
       <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
       <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
       <c r="N12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
     </row>
     <row r="13" spans="1:18" ht="31" customHeight="1">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>1</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="88" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="31" t="s">
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
     </row>
     <row r="14" spans="1:18" ht="29" customHeight="1">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="88" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="31" t="s">
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>3</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="88" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="31" t="s">
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
     </row>
     <row r="16" spans="1:18" ht="29" customHeight="1">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>4</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="88" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="31" t="s">
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>5</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="88" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="31" t="s">
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="90"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
     </row>
     <row r="18" spans="1:18" ht="30" customHeight="1">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>6</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="88" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="31" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
     </row>
     <row r="19" spans="1:18" ht="30" customHeight="1">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>7</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="88" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="31" t="s">
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
     </row>
     <row r="20" spans="1:18" ht="29" customHeight="1">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>8</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="88" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="31" t="s">
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="88"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
     </row>
     <row r="21" spans="1:18" ht="29" customHeight="1">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <v>9</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="88" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="31" t="s">
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="88"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="90"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="1:18" ht="194" customHeight="1">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <v>10</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="88" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="88" t="s">
+      <c r="F22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="31" t="s">
+      <c r="L22" s="94"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="88" t="s">
+      <c r="O22" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
     </row>
     <row r="23" spans="1:18" ht="381" customHeight="1">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <v>11</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="88" t="s">
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="88" t="s">
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="I23" s="89"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="88" t="s">
+      <c r="I23" s="94"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="31" t="s">
+      <c r="L23" s="94"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O23" s="88" t="s">
+      <c r="O23" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="90"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
     </row>
     <row r="24" spans="1:18" ht="385" customHeight="1">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>12</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="88" t="s">
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="88" t="s">
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="88" t="s">
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="31" t="s">
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="88" t="s">
+      <c r="O24" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="90"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
     </row>
     <row r="25" spans="1:18" ht="29" customHeight="1">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <v>13</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="88" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="31" t="s">
+      <c r="F25" s="94"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O25" s="88"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="90"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
     </row>
     <row r="26" spans="1:18" ht="29" customHeight="1">
-      <c r="A26" s="30">
+      <c r="A26" s="29">
         <v>14</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="88" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="31" t="s">
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O26" s="88"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="90"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
     </row>
     <row r="27" spans="1:18" ht="29" customHeight="1">
-      <c r="A27" s="30">
+      <c r="A27" s="29">
         <v>15</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="88" t="s">
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="31" t="s">
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="88"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="90"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
     </row>
     <row r="28" spans="1:18" ht="202" customHeight="1">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <v>16</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="88" t="s">
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="88" t="s">
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="I28" s="89"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="88" t="s">
+      <c r="I28" s="94"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="31" t="s">
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="88" t="s">
+      <c r="O28" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="90"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
     </row>
     <row r="29" spans="1:18" ht="385" customHeight="1">
-      <c r="A29" s="30">
+      <c r="A29" s="29">
         <v>17</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="88" t="s">
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="88" t="s">
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="88" t="s">
+      <c r="I29" s="94"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="L29" s="89"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="31" t="s">
+      <c r="L29" s="94"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="88" t="s">
+      <c r="O29" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="90"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="104">
@@ -8990,281 +9020,540 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="61.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="103">
         <v>41421</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
       <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="103">
         <v>41421</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
       <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:18" s="109" customFormat="1" ht="29" customHeight="1">
+      <c r="A7" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="N7" s="26"/>
+      <c r="B7" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="N7" s="110"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
       <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="B9" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95" t="s">
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
       <c r="N12" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
     </row>
     <row r="13" spans="1:18" ht="31" customHeight="1">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>1</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="88" t="s">
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="88" t="s">
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="88" t="s">
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+    </row>
+    <row r="17" spans="1:18" ht="20">
+      <c r="A17" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="77"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="31" t="s">
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="N18" s="77"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="103">
+        <v>41421</v>
+      </c>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="N19" s="77"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="N20" s="77"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="103">
+        <v>41421</v>
+      </c>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="N21" s="77"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="77"/>
+    </row>
+    <row r="23" spans="1:18" s="109" customFormat="1" ht="29" customHeight="1">
+      <c r="A23" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="N23" s="110"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="N24" s="77"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="N25" s="77"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="77"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="77"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+    </row>
+    <row r="29" spans="1:18" s="84" customFormat="1" ht="29" customHeight="1">
+      <c r="A29" s="82">
+        <v>1</v>
+      </c>
+      <c r="B29" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
+      <c r="O29" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="48">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="A1:M1"/>
@@ -9289,6 +9578,30 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="O13:R13"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A26:M27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
